--- a/CLV_per_klant.xlsx
+++ b/CLV_per_klant.xlsx
@@ -506,10 +506,10 @@
         <v>1057</v>
       </c>
       <c r="F3">
-        <v>2594.454545454545</v>
+        <v>1057</v>
       </c>
       <c r="G3">
-        <v>2594.454545454545</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -552,10 +552,10 @@
         <v>177.4</v>
       </c>
       <c r="F5">
-        <v>435.4363636363636</v>
+        <v>177.4</v>
       </c>
       <c r="G5">
-        <v>435.4363636363636</v>
+        <v>177.4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -575,10 +575,10 @@
         <v>1027.52</v>
       </c>
       <c r="F6">
-        <v>2522.094545454545</v>
+        <v>1027.52</v>
       </c>
       <c r="G6">
-        <v>2522.094545454545</v>
+        <v>1027.52</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>235</v>
       </c>
       <c r="F7">
-        <v>576.8181818181818</v>
+        <v>235</v>
       </c>
       <c r="G7">
-        <v>576.8181818181818</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3466.62</v>
+        <v>385.18</v>
       </c>
       <c r="E9">
         <v>385.18</v>
       </c>
       <c r="F9">
-        <v>945.4418181818182</v>
+        <v>385.18</v>
       </c>
       <c r="G9">
-        <v>945.4418181818182</v>
+        <v>385.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -667,10 +667,10 @@
         <v>840</v>
       </c>
       <c r="F10">
-        <v>2061.818181818182</v>
+        <v>840</v>
       </c>
       <c r="G10">
-        <v>2061.818181818182</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -690,10 +690,10 @@
         <v>952.16</v>
       </c>
       <c r="F11">
-        <v>2337.12</v>
+        <v>952.16</v>
       </c>
       <c r="G11">
-        <v>2337.12</v>
+        <v>952.16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -713,10 +713,10 @@
         <v>635</v>
       </c>
       <c r="F12">
-        <v>1558.636363636364</v>
+        <v>635</v>
       </c>
       <c r="G12">
-        <v>1558.636363636364</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>5250</v>
+        <v>2625</v>
       </c>
       <c r="E13">
         <v>2625</v>
       </c>
       <c r="F13">
-        <v>6443.181818181818</v>
+        <v>2625</v>
       </c>
       <c r="G13">
-        <v>6443.181818181818</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -759,10 +759,10 @@
         <v>335</v>
       </c>
       <c r="F14">
-        <v>822.2727272727273</v>
+        <v>335</v>
       </c>
       <c r="G14">
-        <v>822.2727272727273</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -782,10 +782,10 @@
         <v>219</v>
       </c>
       <c r="F15">
-        <v>537.5454545454545</v>
+        <v>219</v>
       </c>
       <c r="G15">
-        <v>537.5454545454545</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -805,10 +805,10 @@
         <v>575</v>
       </c>
       <c r="F16">
-        <v>1411.363636363636</v>
+        <v>575</v>
       </c>
       <c r="G16">
-        <v>1411.363636363636</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/CLV_per_klant.xlsx
+++ b/CLV_per_klant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>days_customer</t>
   </si>
@@ -37,49 +37,19 @@
     <t>email</t>
   </si>
   <si>
-    <t>annelammertink@live.nl</t>
-  </si>
-  <si>
     <t>c.huigen@denf.nl</t>
   </si>
   <si>
     <t>d.engelkes@welzijnbergen.nl</t>
   </si>
   <si>
-    <t>e.kroon@kbkbouwgroep.nl</t>
-  </si>
-  <si>
-    <t>info@airportmultiservice.com</t>
-  </si>
-  <si>
-    <t>info@ferox-design.com</t>
-  </si>
-  <si>
-    <t>info@kombino.nl</t>
-  </si>
-  <si>
     <t>info@montagebedrijfhorlings.nl</t>
   </si>
   <si>
-    <t>janneke.van.wingerden@hotmail.com</t>
-  </si>
-  <si>
-    <t>jhenkel@epma.care</t>
-  </si>
-  <si>
     <t>jm@luxuria-import.com</t>
   </si>
   <si>
-    <t>jongpack@planet.nl</t>
-  </si>
-  <si>
-    <t>stormvogel@ziggo.nl</t>
-  </si>
-  <si>
     <t>tim@schoonderbeek-cv.nl</t>
-  </si>
-  <si>
-    <t>tomeiten@hetnet.nl</t>
   </si>
 </sst>
 </file>
@@ -437,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +447,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6870.5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>6870.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -494,22 +464,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1057</v>
+        <v>1759</v>
       </c>
       <c r="E3">
-        <v>1057</v>
+        <v>439.75</v>
       </c>
       <c r="F3">
-        <v>1057</v>
+        <v>2858.375</v>
       </c>
       <c r="G3">
-        <v>1057</v>
+        <v>2858.375</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -517,22 +487,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1155.54</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>385.18</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2503.67</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2503.67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -546,16 +516,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>177.4</v>
+        <v>635</v>
       </c>
       <c r="E5">
-        <v>177.4</v>
+        <v>635</v>
       </c>
       <c r="F5">
-        <v>177.4</v>
+        <v>4127.5</v>
       </c>
       <c r="G5">
-        <v>177.4</v>
+        <v>4127.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -563,252 +533,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1027.52</v>
+        <v>876</v>
       </c>
       <c r="E6">
-        <v>1027.52</v>
+        <v>219</v>
       </c>
       <c r="F6">
-        <v>1027.52</v>
+        <v>1423.5</v>
       </c>
       <c r="G6">
-        <v>1027.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>235</v>
-      </c>
-      <c r="E7">
-        <v>235</v>
-      </c>
-      <c r="F7">
-        <v>235</v>
-      </c>
-      <c r="G7">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>385.18</v>
-      </c>
-      <c r="E9">
-        <v>385.18</v>
-      </c>
-      <c r="F9">
-        <v>385.18</v>
-      </c>
-      <c r="G9">
-        <v>385.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>840</v>
-      </c>
-      <c r="E10">
-        <v>840</v>
-      </c>
-      <c r="F10">
-        <v>840</v>
-      </c>
-      <c r="G10">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>952.16</v>
-      </c>
-      <c r="E11">
-        <v>952.16</v>
-      </c>
-      <c r="F11">
-        <v>952.16</v>
-      </c>
-      <c r="G11">
-        <v>952.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>635</v>
-      </c>
-      <c r="E12">
-        <v>635</v>
-      </c>
-      <c r="F12">
-        <v>635</v>
-      </c>
-      <c r="G12">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2625</v>
-      </c>
-      <c r="E13">
-        <v>2625</v>
-      </c>
-      <c r="F13">
-        <v>2625</v>
-      </c>
-      <c r="G13">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>335</v>
-      </c>
-      <c r="E14">
-        <v>335</v>
-      </c>
-      <c r="F14">
-        <v>335</v>
-      </c>
-      <c r="G14">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>219</v>
-      </c>
-      <c r="E15">
-        <v>219</v>
-      </c>
-      <c r="F15">
-        <v>219</v>
-      </c>
-      <c r="G15">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>575</v>
-      </c>
-      <c r="E16">
-        <v>575</v>
-      </c>
-      <c r="F16">
-        <v>575</v>
-      </c>
-      <c r="G16">
-        <v>575</v>
+        <v>1423.5</v>
       </c>
     </row>
   </sheetData>
